--- a/src/main/resources/测试数据4.xlsx
+++ b/src/main/resources/测试数据4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="11">
   <si>
     <t>房间号</t>
   </si>
@@ -33,6 +33,21 @@
   <si>
     <t>应交金额
 （元）</t>
+  </si>
+  <si>
+    <t>2楼</t>
+  </si>
+  <si>
+    <t>3楼</t>
+  </si>
+  <si>
+    <t>4楼</t>
+  </si>
+  <si>
+    <t>5楼</t>
+  </si>
+  <si>
+    <t>6楼</t>
   </si>
 </sst>
 </file>
@@ -761,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,9 +832,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="K254" sqref="K254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1162,8 +1174,8 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="7">
-        <v>201</v>
+      <c r="A2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="8">
         <v>34</v>
@@ -1184,8 +1196,8 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="7">
-        <v>206</v>
+      <c r="A3" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="8">
         <v>164</v>
@@ -1206,8 +1218,8 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="7">
-        <v>207</v>
+      <c r="A4" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="8">
         <v>284</v>
@@ -1228,8 +1240,8 @@
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="7">
-        <v>208</v>
+      <c r="A5" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="8">
         <v>167</v>
@@ -1250,8 +1262,8 @@
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="7">
-        <v>209</v>
+      <c r="A6" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>109</v>
@@ -1272,8 +1284,8 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="7">
-        <v>210</v>
+      <c r="A7" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="8">
         <v>216</v>
@@ -1294,8 +1306,8 @@
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="7">
-        <v>211</v>
+      <c r="A8" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>170</v>
@@ -1316,8 +1328,8 @@
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="7">
-        <v>212</v>
+      <c r="A9" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="8">
         <v>39</v>
@@ -1338,8 +1350,8 @@
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="7">
-        <v>213</v>
+      <c r="A10" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="8">
         <v>79</v>
@@ -1360,8 +1372,8 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="7">
-        <v>214</v>
+      <c r="A11" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="8">
         <v>209</v>
@@ -1382,8 +1394,8 @@
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="7">
-        <v>215</v>
+      <c r="A12" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="8">
         <v>125</v>
@@ -1404,8 +1416,8 @@
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="7">
-        <v>216</v>
+      <c r="A13" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="8">
         <v>204</v>
@@ -1426,8 +1438,8 @@
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="7">
-        <v>217</v>
+      <c r="A14" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B14" s="8">
         <v>115</v>
@@ -1448,8 +1460,8 @@
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="7">
-        <v>218</v>
+      <c r="A15" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="8">
         <v>211</v>
@@ -1470,8 +1482,8 @@
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="7">
-        <v>219</v>
+      <c r="A16" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B16" s="8">
         <v>229</v>
@@ -1492,8 +1504,8 @@
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="7">
-        <v>220</v>
+      <c r="A17" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B17" s="8">
         <v>247</v>
@@ -1514,8 +1526,8 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="7">
-        <v>221</v>
+      <c r="A18" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B18" s="8">
         <v>180</v>
@@ -1536,8 +1548,8 @@
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="7">
-        <v>222</v>
+      <c r="A19" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="8">
         <v>205</v>
@@ -1558,8 +1570,8 @@
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:6">
-      <c r="A20" s="7">
-        <v>223</v>
+      <c r="A20" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B20" s="8">
         <v>300</v>
@@ -1580,8 +1592,8 @@
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:6">
-      <c r="A21" s="7">
-        <v>224</v>
+      <c r="A21" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B21" s="8">
         <v>269</v>
@@ -1602,8 +1614,8 @@
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="7">
-        <v>225</v>
+      <c r="A22" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="8">
         <v>252</v>
@@ -1624,8 +1636,8 @@
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="7">
-        <v>226</v>
+      <c r="A23" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B23" s="8">
         <v>265</v>
@@ -1646,8 +1658,8 @@
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="7">
-        <v>227</v>
+      <c r="A24" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B24" s="8">
         <v>167</v>
@@ -1668,8 +1680,8 @@
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="7">
-        <v>228</v>
+      <c r="A25" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B25" s="8">
         <v>0</v>
@@ -1690,8 +1702,8 @@
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:6">
-      <c r="A26" s="7">
-        <v>229</v>
+      <c r="A26" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B26" s="8">
         <v>473</v>
@@ -1712,8 +1724,8 @@
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:6">
-      <c r="A27" s="7">
-        <v>230</v>
+      <c r="A27" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B27" s="8">
         <v>204</v>
@@ -1734,8 +1746,8 @@
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="7">
-        <v>231</v>
+      <c r="A28" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B28" s="8">
         <v>322</v>
@@ -1756,8 +1768,8 @@
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:6">
-      <c r="A29" s="7">
-        <v>232</v>
+      <c r="A29" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B29" s="8">
         <v>164</v>
@@ -1778,8 +1790,8 @@
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:6">
-      <c r="A30" s="7">
-        <v>233</v>
+      <c r="A30" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B30" s="8">
         <v>170</v>
@@ -1800,8 +1812,8 @@
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:6">
-      <c r="A31" s="7">
-        <v>234</v>
+      <c r="A31" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B31" s="8">
         <v>175</v>
@@ -1822,8 +1834,8 @@
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:6">
-      <c r="A32" s="7">
-        <v>235</v>
+      <c r="A32" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B32" s="8">
         <v>486</v>
@@ -1844,8 +1856,8 @@
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:6">
-      <c r="A33" s="7">
-        <v>236</v>
+      <c r="A33" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B33" s="8">
         <v>343</v>
@@ -1866,8 +1878,8 @@
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:6">
-      <c r="A34" s="7">
-        <v>237</v>
+      <c r="A34" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B34" s="8">
         <v>167</v>
@@ -1888,8 +1900,8 @@
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:6">
-      <c r="A35" s="7">
-        <v>238</v>
+      <c r="A35" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B35" s="8">
         <v>330</v>
@@ -1910,8 +1922,8 @@
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:6">
-      <c r="A36" s="7">
-        <v>239</v>
+      <c r="A36" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B36" s="8">
         <v>113</v>
@@ -1932,8 +1944,8 @@
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:6">
-      <c r="A37" s="7">
-        <v>240</v>
+      <c r="A37" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B37" s="8">
         <v>108</v>
@@ -1954,8 +1966,8 @@
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:6">
-      <c r="A38" s="7">
-        <v>241</v>
+      <c r="A38" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B38" s="8">
         <v>47</v>
@@ -1976,8 +1988,8 @@
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:6">
-      <c r="A39" s="7">
-        <v>242</v>
+      <c r="A39" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B39" s="8">
         <v>224</v>
@@ -1998,8 +2010,8 @@
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:6">
-      <c r="A40" s="7">
-        <v>247</v>
+      <c r="A40" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B40" s="8">
         <v>341</v>
@@ -2020,8 +2032,8 @@
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:6">
-      <c r="A41" s="7">
-        <v>248</v>
+      <c r="A41" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B41" s="8">
         <v>185</v>
@@ -2042,8 +2054,8 @@
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:6">
-      <c r="A42" s="7">
-        <v>249</v>
+      <c r="A42" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B42" s="8">
         <v>117</v>
@@ -2064,8 +2076,8 @@
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:6">
-      <c r="A43" s="7">
-        <v>250</v>
+      <c r="A43" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B43" s="8">
         <v>165</v>
@@ -2086,8 +2098,8 @@
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:6">
-      <c r="A44" s="7">
-        <v>251</v>
+      <c r="A44" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B44" s="8">
         <v>133</v>
@@ -2108,8 +2120,8 @@
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:6">
-      <c r="A45" s="7">
-        <v>301</v>
+      <c r="A45" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B45" s="8">
         <v>128</v>
@@ -2130,8 +2142,8 @@
       </c>
     </row>
     <row r="46" ht="16.5" spans="1:6">
-      <c r="A46" s="7">
-        <v>302</v>
+      <c r="A46" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B46" s="8">
         <v>325</v>
@@ -2152,8 +2164,8 @@
       </c>
     </row>
     <row r="47" ht="16.5" spans="1:6">
-      <c r="A47" s="7">
-        <v>303</v>
+      <c r="A47" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B47" s="8">
         <v>170</v>
@@ -2174,8 +2186,8 @@
       </c>
     </row>
     <row r="48" ht="16.5" spans="1:6">
-      <c r="A48" s="7">
-        <v>304</v>
+      <c r="A48" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B48" s="8">
         <v>218</v>
@@ -2196,8 +2208,8 @@
       </c>
     </row>
     <row r="49" ht="16.5" spans="1:6">
-      <c r="A49" s="7">
-        <v>305</v>
+      <c r="A49" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B49" s="8">
         <v>169</v>
@@ -2218,8 +2230,8 @@
       </c>
     </row>
     <row r="50" ht="16.5" spans="1:6">
-      <c r="A50" s="7">
-        <v>306</v>
+      <c r="A50" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B50" s="8">
         <v>199</v>
@@ -2240,8 +2252,8 @@
       </c>
     </row>
     <row r="51" ht="16.5" spans="1:6">
-      <c r="A51" s="7">
-        <v>307</v>
+      <c r="A51" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B51" s="8">
         <v>224</v>
@@ -2262,8 +2274,8 @@
       </c>
     </row>
     <row r="52" ht="16.5" spans="1:6">
-      <c r="A52" s="7">
-        <v>308</v>
+      <c r="A52" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B52" s="8">
         <v>169</v>
@@ -2284,8 +2296,8 @@
       </c>
     </row>
     <row r="53" ht="16.5" spans="1:6">
-      <c r="A53" s="7">
-        <v>309</v>
+      <c r="A53" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B53" s="8">
         <v>214</v>
@@ -2306,8 +2318,8 @@
       </c>
     </row>
     <row r="54" ht="16.5" spans="1:6">
-      <c r="A54" s="7">
-        <v>310</v>
+      <c r="A54" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B54" s="8">
         <v>162</v>
@@ -2328,8 +2340,8 @@
       </c>
     </row>
     <row r="55" ht="16.5" spans="1:6">
-      <c r="A55" s="7">
-        <v>311</v>
+      <c r="A55" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B55" s="8">
         <v>191</v>
@@ -2350,8 +2362,8 @@
       </c>
     </row>
     <row r="56" ht="16.5" spans="1:6">
-      <c r="A56" s="7">
-        <v>312</v>
+      <c r="A56" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B56" s="8">
         <v>138</v>
@@ -2372,8 +2384,8 @@
       </c>
     </row>
     <row r="57" ht="16.5" spans="1:6">
-      <c r="A57" s="7">
-        <v>313</v>
+      <c r="A57" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B57" s="8">
         <v>64</v>
@@ -2394,8 +2406,8 @@
       </c>
     </row>
     <row r="58" ht="16.5" spans="1:6">
-      <c r="A58" s="7">
-        <v>314</v>
+      <c r="A58" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B58" s="8">
         <v>96</v>
@@ -2416,8 +2428,8 @@
       </c>
     </row>
     <row r="59" ht="16.5" spans="1:6">
-      <c r="A59" s="7">
-        <v>315</v>
+      <c r="A59" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B59" s="8">
         <v>212</v>
@@ -2438,8 +2450,8 @@
       </c>
     </row>
     <row r="60" ht="16.5" spans="1:6">
-      <c r="A60" s="7">
-        <v>316</v>
+      <c r="A60" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B60" s="8">
         <v>161</v>
@@ -2460,8 +2472,8 @@
       </c>
     </row>
     <row r="61" ht="16.5" spans="1:6">
-      <c r="A61" s="7">
-        <v>317</v>
+      <c r="A61" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B61" s="8">
         <v>172</v>
@@ -2482,8 +2494,8 @@
       </c>
     </row>
     <row r="62" ht="16.5" spans="1:6">
-      <c r="A62" s="7">
-        <v>318</v>
+      <c r="A62" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B62" s="8">
         <v>170</v>
@@ -2504,8 +2516,8 @@
       </c>
     </row>
     <row r="63" ht="16.5" spans="1:6">
-      <c r="A63" s="7">
-        <v>319</v>
+      <c r="A63" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B63" s="8">
         <v>96</v>
@@ -2526,8 +2538,8 @@
       </c>
     </row>
     <row r="64" ht="16.5" spans="1:6">
-      <c r="A64" s="7">
-        <v>320</v>
+      <c r="A64" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B64" s="8">
         <v>245</v>
@@ -2548,8 +2560,8 @@
       </c>
     </row>
     <row r="65" ht="16.5" spans="1:6">
-      <c r="A65" s="7">
-        <v>321</v>
+      <c r="A65" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B65" s="8">
         <v>149</v>
@@ -2570,8 +2582,8 @@
       </c>
     </row>
     <row r="66" ht="16.5" spans="1:6">
-      <c r="A66" s="7">
-        <v>322</v>
+      <c r="A66" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B66" s="8">
         <v>182</v>
@@ -2592,8 +2604,8 @@
       </c>
     </row>
     <row r="67" ht="16.5" spans="1:6">
-      <c r="A67" s="7">
-        <v>323</v>
+      <c r="A67" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B67" s="8">
         <v>3</v>
@@ -2614,8 +2626,8 @@
       </c>
     </row>
     <row r="68" ht="16.5" spans="1:6">
-      <c r="A68" s="7">
-        <v>324</v>
+      <c r="A68" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B68" s="8">
         <v>41</v>
@@ -2636,8 +2648,8 @@
       </c>
     </row>
     <row r="69" ht="16.5" spans="1:6">
-      <c r="A69" s="7">
-        <v>325</v>
+      <c r="A69" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B69" s="8">
         <v>28</v>
@@ -2658,8 +2670,8 @@
       </c>
     </row>
     <row r="70" ht="16.5" spans="1:6">
-      <c r="A70" s="7">
-        <v>326</v>
+      <c r="A70" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B70" s="8">
         <v>70</v>
@@ -2680,8 +2692,8 @@
       </c>
     </row>
     <row r="71" ht="16.5" spans="1:6">
-      <c r="A71" s="7">
-        <v>327</v>
+      <c r="A71" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B71" s="8">
         <v>226</v>
@@ -2702,8 +2714,8 @@
       </c>
     </row>
     <row r="72" ht="16.5" spans="1:6">
-      <c r="A72" s="7">
-        <v>328</v>
+      <c r="A72" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B72" s="8">
         <v>110</v>
@@ -2724,8 +2736,8 @@
       </c>
     </row>
     <row r="73" ht="16.5" spans="1:6">
-      <c r="A73" s="7">
-        <v>329</v>
+      <c r="A73" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B73" s="8">
         <v>126</v>
@@ -2746,8 +2758,8 @@
       </c>
     </row>
     <row r="74" ht="16.5" spans="1:6">
-      <c r="A74" s="7">
-        <v>330</v>
+      <c r="A74" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B74" s="8">
         <v>168</v>
@@ -2768,8 +2780,8 @@
       </c>
     </row>
     <row r="75" ht="16.5" spans="1:6">
-      <c r="A75" s="7">
-        <v>331</v>
+      <c r="A75" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B75" s="8">
         <v>135</v>
@@ -2790,8 +2802,8 @@
       </c>
     </row>
     <row r="76" ht="16.5" spans="1:6">
-      <c r="A76" s="7">
-        <v>332</v>
+      <c r="A76" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B76" s="8">
         <v>60</v>
@@ -2812,8 +2824,8 @@
       </c>
     </row>
     <row r="77" ht="16.5" spans="1:6">
-      <c r="A77" s="7">
-        <v>333</v>
+      <c r="A77" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B77" s="8">
         <v>180</v>
@@ -2834,8 +2846,8 @@
       </c>
     </row>
     <row r="78" ht="16.5" spans="1:6">
-      <c r="A78" s="7">
-        <v>334</v>
+      <c r="A78" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B78" s="8">
         <v>180</v>
@@ -2856,8 +2868,8 @@
       </c>
     </row>
     <row r="79" ht="16.5" spans="1:6">
-      <c r="A79" s="7">
-        <v>335</v>
+      <c r="A79" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B79" s="8">
         <v>175</v>
@@ -2878,8 +2890,8 @@
       </c>
     </row>
     <row r="80" ht="16.5" spans="1:6">
-      <c r="A80" s="7">
-        <v>336</v>
+      <c r="A80" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B80" s="8">
         <v>295</v>
@@ -2900,8 +2912,8 @@
       </c>
     </row>
     <row r="81" ht="16.5" spans="1:6">
-      <c r="A81" s="7">
-        <v>337</v>
+      <c r="A81" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B81" s="8">
         <v>155</v>
@@ -2922,8 +2934,8 @@
       </c>
     </row>
     <row r="82" ht="16.5" spans="1:6">
-      <c r="A82" s="7">
-        <v>338</v>
+      <c r="A82" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B82" s="8">
         <v>116</v>
@@ -2944,8 +2956,8 @@
       </c>
     </row>
     <row r="83" ht="16.5" spans="1:6">
-      <c r="A83" s="7">
-        <v>339</v>
+      <c r="A83" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B83" s="8">
         <v>127</v>
@@ -2966,8 +2978,8 @@
       </c>
     </row>
     <row r="84" ht="16.5" spans="1:6">
-      <c r="A84" s="7">
-        <v>340</v>
+      <c r="A84" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B84" s="8">
         <v>172</v>
@@ -2988,8 +3000,8 @@
       </c>
     </row>
     <row r="85" ht="16.5" spans="1:6">
-      <c r="A85" s="7">
-        <v>341</v>
+      <c r="A85" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B85" s="8">
         <v>155</v>
@@ -3010,8 +3022,8 @@
       </c>
     </row>
     <row r="86" ht="16.5" spans="1:6">
-      <c r="A86" s="7">
-        <v>342</v>
+      <c r="A86" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B86" s="8">
         <v>144</v>
@@ -3032,8 +3044,8 @@
       </c>
     </row>
     <row r="87" ht="16.5" spans="1:6">
-      <c r="A87" s="7">
-        <v>343</v>
+      <c r="A87" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B87" s="8">
         <v>65</v>
@@ -3054,8 +3066,8 @@
       </c>
     </row>
     <row r="88" ht="16.5" spans="1:6">
-      <c r="A88" s="7">
-        <v>344</v>
+      <c r="A88" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B88" s="8">
         <v>2</v>
@@ -3076,8 +3088,8 @@
       </c>
     </row>
     <row r="89" ht="16.5" spans="1:6">
-      <c r="A89" s="7">
-        <v>345</v>
+      <c r="A89" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B89" s="8">
         <v>102</v>
@@ -3098,8 +3110,8 @@
       </c>
     </row>
     <row r="90" ht="16.5" spans="1:6">
-      <c r="A90" s="7">
-        <v>346</v>
+      <c r="A90" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B90" s="8">
         <v>200</v>
@@ -3120,8 +3132,8 @@
       </c>
     </row>
     <row r="91" ht="16.5" spans="1:6">
-      <c r="A91" s="7">
-        <v>347</v>
+      <c r="A91" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B91" s="8">
         <v>105</v>
@@ -3142,8 +3154,8 @@
       </c>
     </row>
     <row r="92" ht="16.5" spans="1:6">
-      <c r="A92" s="7">
-        <v>348</v>
+      <c r="A92" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B92" s="8">
         <v>170</v>
@@ -3164,8 +3176,8 @@
       </c>
     </row>
     <row r="93" ht="16.5" spans="1:6">
-      <c r="A93" s="7">
-        <v>349</v>
+      <c r="A93" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B93" s="8">
         <v>159</v>
@@ -3186,8 +3198,8 @@
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:6">
-      <c r="A94" s="7">
-        <v>350</v>
+      <c r="A94" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B94" s="8">
         <v>146</v>
@@ -3208,8 +3220,8 @@
       </c>
     </row>
     <row r="95" ht="16.5" spans="1:6">
-      <c r="A95" s="7">
-        <v>351</v>
+      <c r="A95" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B95" s="8">
         <v>207</v>
@@ -3230,8 +3242,8 @@
       </c>
     </row>
     <row r="96" ht="16.5" spans="1:6">
-      <c r="A96" s="15">
-        <v>401</v>
+      <c r="A96" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B96" s="8">
         <v>93</v>
@@ -3252,8 +3264,8 @@
       </c>
     </row>
     <row r="97" ht="16.5" spans="1:6">
-      <c r="A97" s="15">
-        <v>402</v>
+      <c r="A97" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B97" s="8">
         <v>63</v>
@@ -3274,8 +3286,8 @@
       </c>
     </row>
     <row r="98" ht="16.5" spans="1:6">
-      <c r="A98" s="15">
-        <v>403</v>
+      <c r="A98" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B98" s="8">
         <v>77</v>
@@ -3296,8 +3308,8 @@
       </c>
     </row>
     <row r="99" ht="16.5" spans="1:6">
-      <c r="A99" s="15">
-        <v>404</v>
+      <c r="A99" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B99" s="8">
         <v>78</v>
@@ -3318,8 +3330,8 @@
       </c>
     </row>
     <row r="100" ht="16.5" spans="1:6">
-      <c r="A100" s="15">
-        <v>405</v>
+      <c r="A100" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B100" s="8">
         <v>29</v>
@@ -3340,8 +3352,8 @@
       </c>
     </row>
     <row r="101" ht="16.5" spans="1:6">
-      <c r="A101" s="15">
-        <v>406</v>
+      <c r="A101" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B101" s="8">
         <v>59</v>
@@ -3362,8 +3374,8 @@
       </c>
     </row>
     <row r="102" ht="16.5" spans="1:6">
-      <c r="A102" s="15">
-        <v>407</v>
+      <c r="A102" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B102" s="8">
         <v>45</v>
@@ -3384,8 +3396,8 @@
       </c>
     </row>
     <row r="103" ht="16.5" spans="1:6">
-      <c r="A103" s="15">
-        <v>408</v>
+      <c r="A103" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B103" s="8">
         <v>83</v>
@@ -3406,8 +3418,8 @@
       </c>
     </row>
     <row r="104" ht="16.5" spans="1:6">
-      <c r="A104" s="15">
-        <v>409</v>
+      <c r="A104" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B104" s="8">
         <v>67</v>
@@ -3428,8 +3440,8 @@
       </c>
     </row>
     <row r="105" ht="16.5" spans="1:6">
-      <c r="A105" s="15">
-        <v>410</v>
+      <c r="A105" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B105" s="8">
         <v>32</v>
@@ -3450,8 +3462,8 @@
       </c>
     </row>
     <row r="106" ht="16.5" spans="1:6">
-      <c r="A106" s="15">
-        <v>411</v>
+      <c r="A106" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B106" s="8">
         <v>51</v>
@@ -3472,8 +3484,8 @@
       </c>
     </row>
     <row r="107" ht="16.5" spans="1:6">
-      <c r="A107" s="15">
-        <v>412</v>
+      <c r="A107" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B107" s="8">
         <v>41</v>
@@ -3494,8 +3506,8 @@
       </c>
     </row>
     <row r="108" ht="16.5" spans="1:6">
-      <c r="A108" s="15">
-        <v>413</v>
+      <c r="A108" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B108" s="8">
         <v>45</v>
@@ -3516,8 +3528,8 @@
       </c>
     </row>
     <row r="109" ht="16.5" spans="1:6">
-      <c r="A109" s="15">
-        <v>414</v>
+      <c r="A109" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B109" s="8">
         <v>104</v>
@@ -3538,8 +3550,8 @@
       </c>
     </row>
     <row r="110" ht="16.5" spans="1:6">
-      <c r="A110" s="15">
-        <v>415</v>
+      <c r="A110" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B110" s="8">
         <v>132</v>
@@ -3560,8 +3572,8 @@
       </c>
     </row>
     <row r="111" ht="16.5" spans="1:6">
-      <c r="A111" s="15">
-        <v>416</v>
+      <c r="A111" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B111" s="8">
         <v>32</v>
@@ -3582,8 +3594,8 @@
       </c>
     </row>
     <row r="112" ht="16.5" spans="1:6">
-      <c r="A112" s="15">
-        <v>417</v>
+      <c r="A112" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B112" s="8">
         <v>26</v>
@@ -3604,8 +3616,8 @@
       </c>
     </row>
     <row r="113" ht="16.5" spans="1:6">
-      <c r="A113" s="15">
-        <v>418</v>
+      <c r="A113" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B113" s="8">
         <v>68</v>
@@ -3626,8 +3638,8 @@
       </c>
     </row>
     <row r="114" ht="16.5" spans="1:6">
-      <c r="A114" s="15">
-        <v>419</v>
+      <c r="A114" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B114" s="8">
         <v>59</v>
@@ -3648,8 +3660,8 @@
       </c>
     </row>
     <row r="115" ht="16.5" spans="1:6">
-      <c r="A115" s="15">
-        <v>420</v>
+      <c r="A115" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B115" s="8">
         <v>62</v>
@@ -3670,8 +3682,8 @@
       </c>
     </row>
     <row r="116" ht="16.5" spans="1:6">
-      <c r="A116" s="15">
-        <v>421</v>
+      <c r="A116" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B116" s="8">
         <v>47</v>
@@ -3692,8 +3704,8 @@
       </c>
     </row>
     <row r="117" ht="16.5" spans="1:6">
-      <c r="A117" s="15">
-        <v>422</v>
+      <c r="A117" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B117" s="17">
         <v>68</v>
@@ -3714,8 +3726,8 @@
       </c>
     </row>
     <row r="118" ht="16.5" spans="1:6">
-      <c r="A118" s="15">
-        <v>423</v>
+      <c r="A118" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B118" s="8">
         <v>57</v>
@@ -3736,8 +3748,8 @@
       </c>
     </row>
     <row r="119" ht="16.5" spans="1:6">
-      <c r="A119" s="15">
-        <v>424</v>
+      <c r="A119" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B119" s="8">
         <v>89</v>
@@ -3758,8 +3770,8 @@
       </c>
     </row>
     <row r="120" ht="16.5" spans="1:6">
-      <c r="A120" s="15">
-        <v>425</v>
+      <c r="A120" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B120" s="17">
         <v>185</v>
@@ -3780,8 +3792,8 @@
       </c>
     </row>
     <row r="121" ht="16.5" spans="1:6">
-      <c r="A121" s="15">
-        <v>426</v>
+      <c r="A121" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B121" s="8">
         <v>20</v>
@@ -3802,8 +3814,8 @@
       </c>
     </row>
     <row r="122" ht="16.5" spans="1:6">
-      <c r="A122" s="15">
-        <v>427</v>
+      <c r="A122" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B122" s="8">
         <v>45</v>
@@ -3824,8 +3836,8 @@
       </c>
     </row>
     <row r="123" ht="16.5" spans="1:6">
-      <c r="A123" s="15">
-        <v>428</v>
+      <c r="A123" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B123" s="8">
         <v>138</v>
@@ -3846,8 +3858,8 @@
       </c>
     </row>
     <row r="124" ht="16.5" spans="1:6">
-      <c r="A124" s="15">
-        <v>429</v>
+      <c r="A124" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B124" s="8">
         <v>100</v>
@@ -3868,8 +3880,8 @@
       </c>
     </row>
     <row r="125" ht="16.5" spans="1:6">
-      <c r="A125" s="15">
-        <v>430</v>
+      <c r="A125" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B125" s="8">
         <v>20</v>
@@ -3890,8 +3902,8 @@
       </c>
     </row>
     <row r="126" ht="16.5" spans="1:6">
-      <c r="A126" s="15">
-        <v>431</v>
+      <c r="A126" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B126" s="8">
         <v>36</v>
@@ -3912,8 +3924,8 @@
       </c>
     </row>
     <row r="127" ht="16.5" spans="1:6">
-      <c r="A127" s="15">
-        <v>432</v>
+      <c r="A127" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B127" s="8">
         <v>46</v>
@@ -3934,8 +3946,8 @@
       </c>
     </row>
     <row r="128" ht="16.5" spans="1:6">
-      <c r="A128" s="15">
-        <v>433</v>
+      <c r="A128" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B128" s="8">
         <v>44</v>
@@ -3956,8 +3968,8 @@
       </c>
     </row>
     <row r="129" ht="16.5" spans="1:6">
-      <c r="A129" s="15">
-        <v>434</v>
+      <c r="A129" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B129" s="8">
         <v>63</v>
@@ -3978,8 +3990,8 @@
       </c>
     </row>
     <row r="130" ht="16.5" spans="1:6">
-      <c r="A130" s="15">
-        <v>435</v>
+      <c r="A130" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B130" s="8">
         <v>85</v>
@@ -4000,8 +4012,8 @@
       </c>
     </row>
     <row r="131" ht="16.5" spans="1:6">
-      <c r="A131" s="15">
-        <v>436</v>
+      <c r="A131" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B131" s="8">
         <v>33</v>
@@ -4022,8 +4034,8 @@
       </c>
     </row>
     <row r="132" ht="16.5" spans="1:6">
-      <c r="A132" s="15">
-        <v>437</v>
+      <c r="A132" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B132" s="8">
         <v>85</v>
@@ -4044,8 +4056,8 @@
       </c>
     </row>
     <row r="133" ht="16.5" spans="1:6">
-      <c r="A133" s="15">
-        <v>438</v>
+      <c r="A133" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B133" s="8">
         <v>87</v>
@@ -4066,8 +4078,8 @@
       </c>
     </row>
     <row r="134" ht="16.5" spans="1:6">
-      <c r="A134" s="15">
-        <v>439</v>
+      <c r="A134" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B134" s="8">
         <v>72</v>
@@ -4088,8 +4100,8 @@
       </c>
     </row>
     <row r="135" ht="16.5" spans="1:6">
-      <c r="A135" s="15">
-        <v>440</v>
+      <c r="A135" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B135" s="8">
         <v>110</v>
@@ -4110,8 +4122,8 @@
       </c>
     </row>
     <row r="136" ht="16.5" spans="1:6">
-      <c r="A136" s="15">
-        <v>441</v>
+      <c r="A136" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B136" s="8">
         <v>48</v>
@@ -4132,8 +4144,8 @@
       </c>
     </row>
     <row r="137" ht="16.5" spans="1:6">
-      <c r="A137" s="15">
-        <v>442</v>
+      <c r="A137" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B137" s="8">
         <v>75</v>
@@ -4154,8 +4166,8 @@
       </c>
     </row>
     <row r="138" ht="16.5" spans="1:6">
-      <c r="A138" s="7">
-        <v>443</v>
+      <c r="A138" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B138" s="8">
         <v>80</v>
@@ -4176,8 +4188,8 @@
       </c>
     </row>
     <row r="139" ht="16.5" spans="1:6">
-      <c r="A139" s="7">
-        <v>444</v>
+      <c r="A139" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B139" s="8">
         <v>110</v>
@@ -4198,8 +4210,8 @@
       </c>
     </row>
     <row r="140" ht="16.5" spans="1:6">
-      <c r="A140" s="7">
-        <v>445</v>
+      <c r="A140" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B140" s="8">
         <v>1</v>
@@ -4220,8 +4232,8 @@
       </c>
     </row>
     <row r="141" ht="16.5" spans="1:6">
-      <c r="A141" s="7">
-        <v>446</v>
+      <c r="A141" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B141" s="8">
         <v>105</v>
@@ -4242,8 +4254,8 @@
       </c>
     </row>
     <row r="142" ht="16.5" spans="1:6">
-      <c r="A142" s="7">
-        <v>447</v>
+      <c r="A142" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B142" s="8">
         <v>109</v>
@@ -4264,8 +4276,8 @@
       </c>
     </row>
     <row r="143" ht="16.5" spans="1:6">
-      <c r="A143" s="7">
-        <v>448</v>
+      <c r="A143" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B143" s="8">
         <v>173</v>
@@ -4286,8 +4298,8 @@
       </c>
     </row>
     <row r="144" ht="16.5" spans="1:6">
-      <c r="A144" s="7">
-        <v>449</v>
+      <c r="A144" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B144" s="8">
         <v>127</v>
@@ -4308,8 +4320,8 @@
       </c>
     </row>
     <row r="145" ht="16.5" spans="1:6">
-      <c r="A145" s="7">
-        <v>450</v>
+      <c r="A145" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B145" s="8">
         <v>109</v>
@@ -4330,8 +4342,8 @@
       </c>
     </row>
     <row r="146" ht="16.5" spans="1:6">
-      <c r="A146" s="7">
-        <v>451</v>
+      <c r="A146" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B146" s="8">
         <v>140</v>
@@ -4352,8 +4364,8 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="7">
-        <v>501</v>
+      <c r="A147" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B147" s="18">
         <v>5</v>
@@ -4374,8 +4386,8 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="7">
-        <v>502</v>
+      <c r="A148" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B148" s="18">
         <v>4</v>
@@ -4396,8 +4408,8 @@
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="7">
-        <v>503</v>
+      <c r="A149" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B149" s="18">
         <v>3</v>
@@ -4418,8 +4430,8 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="7">
-        <v>504</v>
+      <c r="A150" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B150" s="18">
         <v>10</v>
@@ -4440,8 +4452,8 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="7">
-        <v>505</v>
+      <c r="A151" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B151" s="18">
         <v>10</v>
@@ -4462,8 +4474,8 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="7">
-        <v>506</v>
+      <c r="A152" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B152" s="18">
         <v>2</v>
@@ -4484,8 +4496,8 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="7">
-        <v>507</v>
+      <c r="A153" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B153" s="18">
         <v>4</v>
@@ -4506,8 +4518,8 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="7">
-        <v>508</v>
+      <c r="A154" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B154" s="18">
         <v>2</v>
@@ -4528,8 +4540,8 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="7">
-        <v>509</v>
+      <c r="A155" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B155" s="18">
         <v>3</v>
@@ -4550,8 +4562,8 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="7">
-        <v>510</v>
+      <c r="A156" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B156" s="18">
         <v>10</v>
@@ -4572,8 +4584,8 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="7">
-        <v>511</v>
+      <c r="A157" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B157" s="18">
         <v>0</v>
@@ -4594,8 +4606,8 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="7">
-        <v>512</v>
+      <c r="A158" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B158" s="18">
         <v>0</v>
@@ -4616,8 +4628,8 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="7">
-        <v>513</v>
+      <c r="A159" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B159" s="18">
         <v>0</v>
@@ -4638,8 +4650,8 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="7">
-        <v>514</v>
+      <c r="A160" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B160" s="18">
         <v>0</v>
@@ -4660,8 +4672,8 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="7">
-        <v>515</v>
+      <c r="A161" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B161" s="18">
         <v>0</v>
@@ -4682,8 +4694,8 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="7">
-        <v>516</v>
+      <c r="A162" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B162" s="18">
         <v>16</v>
@@ -4704,8 +4716,8 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="7">
-        <v>517</v>
+      <c r="A163" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B163" s="18">
         <v>0</v>
@@ -4726,8 +4738,8 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="7">
-        <v>518</v>
+      <c r="A164" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B164" s="18">
         <v>0</v>
@@ -4748,8 +4760,8 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="7">
-        <v>519</v>
+      <c r="A165" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B165" s="18">
         <v>0</v>
@@ -4770,8 +4782,8 @@
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="7">
-        <v>520</v>
+      <c r="A166" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B166" s="18">
         <v>0</v>
@@ -4792,8 +4804,8 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="7">
-        <v>521</v>
+      <c r="A167" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B167" s="18">
         <v>38</v>
@@ -4814,8 +4826,8 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="7">
-        <v>522</v>
+      <c r="A168" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B168" s="18">
         <v>0</v>
@@ -4836,8 +4848,8 @@
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="7">
-        <v>523</v>
+      <c r="A169" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B169" s="18">
         <v>0</v>
@@ -4858,8 +4870,8 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="7">
-        <v>524</v>
+      <c r="A170" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B170" s="18">
         <v>0</v>
@@ -4880,8 +4892,8 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="7">
-        <v>525</v>
+      <c r="A171" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B171" s="18">
         <v>0</v>
@@ -4902,8 +4914,8 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="7">
-        <v>526</v>
+      <c r="A172" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B172" s="18">
         <v>0</v>
@@ -4924,8 +4936,8 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="7">
-        <v>527</v>
+      <c r="A173" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B173" s="18">
         <v>0</v>
@@ -4946,8 +4958,8 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="7">
-        <v>528</v>
+      <c r="A174" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B174" s="18">
         <v>0</v>
@@ -4968,8 +4980,8 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="7">
-        <v>529</v>
+      <c r="A175" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B175" s="18">
         <v>0</v>
@@ -4990,8 +5002,8 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="7">
-        <v>530</v>
+      <c r="A176" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B176" s="18">
         <v>0</v>
@@ -5012,8 +5024,8 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="7">
-        <v>531</v>
+      <c r="A177" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B177" s="18">
         <v>0</v>
@@ -5034,8 +5046,8 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="7">
-        <v>532</v>
+      <c r="A178" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B178" s="18">
         <v>0</v>
@@ -5056,8 +5068,8 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="7">
-        <v>533</v>
+      <c r="A179" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B179" s="18">
         <v>0</v>
@@ -5078,8 +5090,8 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="7">
-        <v>534</v>
+      <c r="A180" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B180" s="18">
         <v>0</v>
@@ -5100,8 +5112,8 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="7">
-        <v>535</v>
+      <c r="A181" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B181" s="18">
         <v>0</v>
@@ -5122,8 +5134,8 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="7">
-        <v>536</v>
+      <c r="A182" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B182" s="18">
         <v>0</v>
@@ -5144,8 +5156,8 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="7">
-        <v>537</v>
+      <c r="A183" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B183" s="18">
         <v>0</v>
@@ -5166,8 +5178,8 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="7">
-        <v>538</v>
+      <c r="A184" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B184" s="18">
         <v>0</v>
@@ -5188,8 +5200,8 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="7">
-        <v>539</v>
+      <c r="A185" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B185" s="18">
         <v>0</v>
@@ -5210,8 +5222,8 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="7">
-        <v>540</v>
+      <c r="A186" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B186" s="18">
         <v>0</v>
@@ -5232,8 +5244,8 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="7">
-        <v>541</v>
+      <c r="A187" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B187" s="18">
         <v>0</v>
@@ -5254,8 +5266,8 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="7">
-        <v>542</v>
+      <c r="A188" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B188" s="18">
         <v>0</v>
@@ -5276,8 +5288,8 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="7">
-        <v>543</v>
+      <c r="A189" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B189" s="18">
         <v>0</v>
@@ -5298,8 +5310,8 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="7">
-        <v>544</v>
+      <c r="A190" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B190" s="18">
         <v>0</v>
@@ -5320,8 +5332,8 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="7">
-        <v>545</v>
+      <c r="A191" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B191" s="18">
         <v>0</v>
@@ -5342,8 +5354,8 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="7">
-        <v>546</v>
+      <c r="A192" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B192" s="18">
         <v>0</v>
@@ -5364,8 +5376,8 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="7">
-        <v>547</v>
+      <c r="A193" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B193" s="18">
         <v>0</v>
@@ -5386,8 +5398,8 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="7">
-        <v>548</v>
+      <c r="A194" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B194" s="18">
         <v>0</v>
@@ -5408,8 +5420,8 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="7">
-        <v>549</v>
+      <c r="A195" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B195" s="18">
         <v>0</v>
@@ -5430,8 +5442,8 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="7">
-        <v>550</v>
+      <c r="A196" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B196" s="18">
         <v>0</v>
@@ -5452,8 +5464,8 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="7">
-        <v>551</v>
+      <c r="A197" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B197" s="18">
         <v>0</v>
@@ -5474,8 +5486,8 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="7">
-        <v>601</v>
+      <c r="A198" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B198" s="18">
         <v>18</v>
@@ -5496,8 +5508,8 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="7">
-        <v>602</v>
+      <c r="A199" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B199" s="18">
         <v>18</v>
@@ -5518,8 +5530,8 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="7">
-        <v>603</v>
+      <c r="A200" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B200" s="18">
         <v>21</v>
@@ -5540,8 +5552,8 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="7">
-        <v>604</v>
+      <c r="A201" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B201" s="18">
         <v>11</v>
@@ -5562,8 +5574,8 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="7">
-        <v>605</v>
+      <c r="A202" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B202" s="18">
         <v>27</v>
@@ -5584,8 +5596,8 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="7">
-        <v>606</v>
+      <c r="A203" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B203" s="18">
         <v>35</v>
@@ -5606,8 +5618,8 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="7">
-        <v>607</v>
+      <c r="A204" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B204" s="18">
         <v>4</v>
@@ -5628,8 +5640,8 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="7">
-        <v>608</v>
+      <c r="A205" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B205" s="18">
         <v>58</v>
@@ -5650,8 +5662,8 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="7">
-        <v>609</v>
+      <c r="A206" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B206" s="18">
         <v>13</v>
@@ -5672,8 +5684,8 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="7">
-        <v>610</v>
+      <c r="A207" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B207" s="18">
         <v>25</v>
@@ -5694,8 +5706,8 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="7">
-        <v>611</v>
+      <c r="A208" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B208" s="18">
         <v>36</v>
@@ -5716,8 +5728,8 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="7">
-        <v>612</v>
+      <c r="A209" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B209" s="18">
         <v>37</v>
@@ -5738,8 +5750,8 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="7">
-        <v>613</v>
+      <c r="A210" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B210" s="18">
         <v>23</v>
@@ -5760,8 +5772,8 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="7">
-        <v>614</v>
+      <c r="A211" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B211" s="18">
         <v>46</v>
@@ -5782,8 +5794,8 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="7">
-        <v>615</v>
+      <c r="A212" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B212" s="18">
         <v>24</v>
@@ -5804,8 +5816,8 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="7">
-        <v>616</v>
+      <c r="A213" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B213" s="18">
         <v>34</v>
@@ -5826,8 +5838,8 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="7">
-        <v>617</v>
+      <c r="A214" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B214" s="18">
         <v>36</v>
@@ -5848,8 +5860,8 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="7">
-        <v>618</v>
+      <c r="A215" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B215" s="18">
         <v>43</v>
@@ -5870,8 +5882,8 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="7">
-        <v>619</v>
+      <c r="A216" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B216" s="18">
         <v>15</v>
@@ -5892,8 +5904,8 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="7">
-        <v>620</v>
+      <c r="A217" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B217" s="18">
         <v>37</v>
@@ -5914,8 +5926,8 @@
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="7">
-        <v>621</v>
+      <c r="A218" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B218" s="18">
         <v>53</v>
@@ -5936,8 +5948,8 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="7">
-        <v>622</v>
+      <c r="A219" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B219" s="18">
         <v>26</v>
@@ -5958,8 +5970,8 @@
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="7">
-        <v>623</v>
+      <c r="A220" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B220" s="18">
         <v>44</v>
@@ -5980,8 +5992,8 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="7">
-        <v>624</v>
+      <c r="A221" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B221" s="18">
         <v>40</v>
@@ -6002,8 +6014,8 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="7">
-        <v>625</v>
+      <c r="A222" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B222" s="18">
         <v>38</v>
@@ -6024,8 +6036,8 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="7">
-        <v>626</v>
+      <c r="A223" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B223" s="18">
         <v>16</v>
@@ -6046,8 +6058,8 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="7">
-        <v>627</v>
+      <c r="A224" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B224" s="18">
         <v>6</v>
@@ -6068,8 +6080,8 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="7">
-        <v>628</v>
+      <c r="A225" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B225" s="18">
         <v>27</v>
@@ -6090,8 +6102,8 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="7">
-        <v>629</v>
+      <c r="A226" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B226" s="18">
         <v>5</v>
@@ -6112,8 +6124,8 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="7">
-        <v>630</v>
+      <c r="A227" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B227" s="18">
         <v>0</v>
@@ -6134,8 +6146,8 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="7">
-        <v>631</v>
+      <c r="A228" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B228" s="18">
         <v>5</v>
@@ -6156,8 +6168,8 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="7">
-        <v>632</v>
+      <c r="A229" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B229" s="18">
         <v>24</v>
@@ -6178,8 +6190,8 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="7">
-        <v>633</v>
+      <c r="A230" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B230" s="18">
         <v>42</v>
@@ -6200,8 +6212,8 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="7">
-        <v>634</v>
+      <c r="A231" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B231" s="18">
         <v>15</v>
@@ -6222,8 +6234,8 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="7">
-        <v>635</v>
+      <c r="A232" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B232" s="18">
         <v>1</v>
@@ -6244,8 +6256,8 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="7">
-        <v>636</v>
+      <c r="A233" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B233" s="18">
         <v>0</v>
@@ -6266,8 +6278,8 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="7">
-        <v>637</v>
+      <c r="A234" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B234" s="18">
         <v>1</v>
@@ -6288,8 +6300,8 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="7">
-        <v>638</v>
+      <c r="A235" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B235" s="18">
         <v>44</v>
@@ -6310,8 +6322,8 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="7">
-        <v>639</v>
+      <c r="A236" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B236" s="18">
         <v>41</v>
@@ -6332,8 +6344,8 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="7">
-        <v>640</v>
+      <c r="A237" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B237" s="18">
         <v>44</v>
@@ -6354,8 +6366,8 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="7">
-        <v>641</v>
+      <c r="A238" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B238" s="18">
         <v>38</v>
@@ -6376,8 +6388,8 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="7">
-        <v>642</v>
+      <c r="A239" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B239" s="18">
         <v>36</v>
@@ -6398,8 +6410,8 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="7">
-        <v>643</v>
+      <c r="A240" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B240" s="18">
         <v>41</v>
@@ -6420,8 +6432,8 @@
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="7">
-        <v>644</v>
+      <c r="A241" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B241" s="18">
         <v>38</v>
@@ -6442,8 +6454,8 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="7">
-        <v>645</v>
+      <c r="A242" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B242" s="18">
         <v>2</v>
@@ -6464,8 +6476,8 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="7">
-        <v>646</v>
+      <c r="A243" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B243" s="18">
         <v>21</v>
@@ -6486,8 +6498,8 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="7">
-        <v>647</v>
+      <c r="A244" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B244" s="18">
         <v>22</v>
@@ -6508,8 +6520,8 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="7">
-        <v>648</v>
+      <c r="A245" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B245" s="18">
         <v>25</v>
@@ -6530,8 +6542,8 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="7">
-        <v>649</v>
+      <c r="A246" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B246" s="18">
         <v>29</v>
@@ -6552,8 +6564,8 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="7">
-        <v>650</v>
+      <c r="A247" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B247" s="18">
         <v>17</v>
@@ -6574,8 +6586,8 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="7">
-        <v>651</v>
+      <c r="A248" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B248" s="18">
         <v>9</v>
@@ -6593,3372 +6605,6 @@
       <c r="F248" s="11">
         <f t="shared" si="7"/>
         <v>10.2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="7">
-        <v>701</v>
-      </c>
-      <c r="B249" s="18">
-        <v>11</v>
-      </c>
-      <c r="C249" s="18">
-        <v>11</v>
-      </c>
-      <c r="D249" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E249" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="F249" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="7">
-        <v>702</v>
-      </c>
-      <c r="B250" s="18">
-        <v>85</v>
-      </c>
-      <c r="C250" s="18">
-        <v>98</v>
-      </c>
-      <c r="D250" s="9">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="E250" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F250" s="11">
-        <f t="shared" si="7"/>
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="7">
-        <v>703</v>
-      </c>
-      <c r="B251" s="18">
-        <v>23</v>
-      </c>
-      <c r="C251" s="18">
-        <v>25</v>
-      </c>
-      <c r="D251" s="9">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="E251" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F251" s="11">
-        <f t="shared" si="7"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="7">
-        <v>704</v>
-      </c>
-      <c r="B252" s="18">
-        <v>27</v>
-      </c>
-      <c r="C252" s="18">
-        <v>31</v>
-      </c>
-      <c r="D252" s="9">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="E252" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F252" s="11">
-        <f t="shared" si="7"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="7">
-        <v>705</v>
-      </c>
-      <c r="B253" s="18">
-        <v>44</v>
-      </c>
-      <c r="C253" s="18">
-        <v>48</v>
-      </c>
-      <c r="D253" s="9">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="E253" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F253" s="11">
-        <f t="shared" si="7"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="7">
-        <v>706</v>
-      </c>
-      <c r="B254" s="18">
-        <v>61</v>
-      </c>
-      <c r="C254" s="18">
-        <v>70</v>
-      </c>
-      <c r="D254" s="9">
-        <f t="shared" ref="D254:D317" si="8">C254-B254</f>
-        <v>9</v>
-      </c>
-      <c r="E254" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F254" s="11">
-        <f t="shared" ref="F254:F317" si="9">D254*E254</f>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="7">
-        <v>707</v>
-      </c>
-      <c r="B255" s="18">
-        <v>49</v>
-      </c>
-      <c r="C255" s="18">
-        <v>53</v>
-      </c>
-      <c r="D255" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E255" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="F255" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="7">
-        <v>708</v>
-      </c>
-      <c r="B256" s="18">
-        <v>75</v>
-      </c>
-      <c r="C256" s="18">
-        <v>80</v>
-      </c>
-      <c r="D256" s="9">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="E256" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F256" s="11">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="7">
-        <v>709</v>
-      </c>
-      <c r="B257" s="18">
-        <v>27</v>
-      </c>
-      <c r="C257" s="18">
-        <v>29</v>
-      </c>
-      <c r="D257" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E257" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F257" s="11">
-        <f t="shared" si="9"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="7">
-        <v>710</v>
-      </c>
-      <c r="B258" s="18">
-        <v>20</v>
-      </c>
-      <c r="C258" s="18">
-        <v>22</v>
-      </c>
-      <c r="D258" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E258" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="F258" s="11">
-        <f t="shared" si="9"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="7">
-        <v>711</v>
-      </c>
-      <c r="B259" s="18">
-        <v>51</v>
-      </c>
-      <c r="C259" s="18">
-        <v>58</v>
-      </c>
-      <c r="D259" s="9">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="E259" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F259" s="11">
-        <f t="shared" si="9"/>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="7">
-        <v>712</v>
-      </c>
-      <c r="B260" s="18">
-        <v>33</v>
-      </c>
-      <c r="C260" s="18">
-        <v>35</v>
-      </c>
-      <c r="D260" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E260" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F260" s="11">
-        <f t="shared" si="9"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="7">
-        <v>713</v>
-      </c>
-      <c r="B261" s="18">
-        <v>26</v>
-      </c>
-      <c r="C261" s="18">
-        <v>30</v>
-      </c>
-      <c r="D261" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E261" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F261" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="7">
-        <v>714</v>
-      </c>
-      <c r="B262" s="18">
-        <v>34</v>
-      </c>
-      <c r="C262" s="18">
-        <v>34</v>
-      </c>
-      <c r="D262" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E262" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F262" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="7">
-        <v>715</v>
-      </c>
-      <c r="B263" s="18">
-        <v>30</v>
-      </c>
-      <c r="C263" s="18">
-        <v>30</v>
-      </c>
-      <c r="D263" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E263" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F263" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="7">
-        <v>716</v>
-      </c>
-      <c r="B264" s="18">
-        <v>16</v>
-      </c>
-      <c r="C264" s="18">
-        <v>18</v>
-      </c>
-      <c r="D264" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E264" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F264" s="11">
-        <f t="shared" si="9"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="7">
-        <v>717</v>
-      </c>
-      <c r="B265" s="18">
-        <v>21</v>
-      </c>
-      <c r="C265" s="18">
-        <v>21</v>
-      </c>
-      <c r="D265" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E265" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F265" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266" s="7">
-        <v>718</v>
-      </c>
-      <c r="B266" s="18">
-        <v>36</v>
-      </c>
-      <c r="C266" s="18">
-        <v>40</v>
-      </c>
-      <c r="D266" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E266" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F266" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267" s="7">
-        <v>719</v>
-      </c>
-      <c r="B267" s="18">
-        <v>51</v>
-      </c>
-      <c r="C267" s="18">
-        <v>57</v>
-      </c>
-      <c r="D267" s="9">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="E267" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="F267" s="11">
-        <f t="shared" si="9"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="A268" s="7">
-        <v>720</v>
-      </c>
-      <c r="B268" s="18">
-        <v>16</v>
-      </c>
-      <c r="C268" s="18">
-        <v>17</v>
-      </c>
-      <c r="D268" s="9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E268" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F268" s="11">
-        <f t="shared" si="9"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269" s="7">
-        <v>721</v>
-      </c>
-      <c r="B269" s="18">
-        <v>20</v>
-      </c>
-      <c r="C269" s="18">
-        <v>20</v>
-      </c>
-      <c r="D269" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E269" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F269" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="7">
-        <v>722</v>
-      </c>
-      <c r="B270" s="18">
-        <v>17</v>
-      </c>
-      <c r="C270" s="18">
-        <v>17</v>
-      </c>
-      <c r="D270" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E270" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="F270" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="7">
-        <v>723</v>
-      </c>
-      <c r="B271" s="18">
-        <v>25</v>
-      </c>
-      <c r="C271" s="18">
-        <v>25</v>
-      </c>
-      <c r="D271" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E271" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F271" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="7">
-        <v>724</v>
-      </c>
-      <c r="B272" s="18">
-        <v>34</v>
-      </c>
-      <c r="C272" s="18">
-        <v>36</v>
-      </c>
-      <c r="D272" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E272" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F272" s="11">
-        <f t="shared" si="9"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="A273" s="7">
-        <v>725</v>
-      </c>
-      <c r="B273" s="18">
-        <v>67</v>
-      </c>
-      <c r="C273" s="18">
-        <v>73</v>
-      </c>
-      <c r="D273" s="9">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="E273" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F273" s="11">
-        <f t="shared" si="9"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="7">
-        <v>726</v>
-      </c>
-      <c r="B274" s="18">
-        <v>32</v>
-      </c>
-      <c r="C274" s="18">
-        <v>34</v>
-      </c>
-      <c r="D274" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E274" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F274" s="11">
-        <f t="shared" si="9"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="7">
-        <v>727</v>
-      </c>
-      <c r="B275" s="18">
-        <v>59</v>
-      </c>
-      <c r="C275" s="18">
-        <v>63</v>
-      </c>
-      <c r="D275" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E275" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F275" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="7">
-        <v>728</v>
-      </c>
-      <c r="B276" s="18">
-        <v>25</v>
-      </c>
-      <c r="C276" s="18">
-        <v>25</v>
-      </c>
-      <c r="D276" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E276" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F276" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="7">
-        <v>729</v>
-      </c>
-      <c r="B277" s="18">
-        <v>20</v>
-      </c>
-      <c r="C277" s="18">
-        <v>20</v>
-      </c>
-      <c r="D277" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E277" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F277" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278" s="7">
-        <v>730</v>
-      </c>
-      <c r="B278" s="18">
-        <v>26</v>
-      </c>
-      <c r="C278" s="18">
-        <v>26</v>
-      </c>
-      <c r="D278" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E278" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F278" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="7">
-        <v>731</v>
-      </c>
-      <c r="B279" s="18">
-        <v>1</v>
-      </c>
-      <c r="C279" s="18">
-        <v>1</v>
-      </c>
-      <c r="D279" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E279" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="F279" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="7">
-        <v>732</v>
-      </c>
-      <c r="B280" s="18">
-        <v>28</v>
-      </c>
-      <c r="C280" s="18">
-        <v>28</v>
-      </c>
-      <c r="D280" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E280" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F280" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="7">
-        <v>733</v>
-      </c>
-      <c r="B281" s="18">
-        <v>38</v>
-      </c>
-      <c r="C281" s="18">
-        <v>44</v>
-      </c>
-      <c r="D281" s="9">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="E281" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F281" s="11">
-        <f t="shared" si="9"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="7">
-        <v>734</v>
-      </c>
-      <c r="B282" s="18">
-        <v>46</v>
-      </c>
-      <c r="C282" s="18">
-        <v>53</v>
-      </c>
-      <c r="D282" s="9">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="E282" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="F282" s="11">
-        <f t="shared" si="9"/>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283" s="7">
-        <v>735</v>
-      </c>
-      <c r="B283" s="18">
-        <v>64</v>
-      </c>
-      <c r="C283" s="18">
-        <v>72</v>
-      </c>
-      <c r="D283" s="9">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="E283" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F283" s="11">
-        <f t="shared" si="9"/>
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="7">
-        <v>736</v>
-      </c>
-      <c r="B284" s="18">
-        <v>35</v>
-      </c>
-      <c r="C284" s="18">
-        <v>38</v>
-      </c>
-      <c r="D284" s="9">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="E284" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F284" s="11">
-        <f t="shared" si="9"/>
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="7">
-        <v>737</v>
-      </c>
-      <c r="B285" s="18">
-        <v>35</v>
-      </c>
-      <c r="C285" s="18">
-        <v>37</v>
-      </c>
-      <c r="D285" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E285" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F285" s="11">
-        <f t="shared" si="9"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="7">
-        <v>738</v>
-      </c>
-      <c r="B286" s="18">
-        <v>38</v>
-      </c>
-      <c r="C286" s="18">
-        <v>38</v>
-      </c>
-      <c r="D286" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E286" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F286" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="7">
-        <v>739</v>
-      </c>
-      <c r="B287" s="18">
-        <v>2</v>
-      </c>
-      <c r="C287" s="18">
-        <v>2</v>
-      </c>
-      <c r="D287" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E287" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="F287" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="7">
-        <v>740</v>
-      </c>
-      <c r="B288" s="18">
-        <v>38</v>
-      </c>
-      <c r="C288" s="18">
-        <v>38</v>
-      </c>
-      <c r="D288" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E288" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F288" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289" s="7">
-        <v>741</v>
-      </c>
-      <c r="B289" s="18">
-        <v>57</v>
-      </c>
-      <c r="C289" s="18">
-        <v>66</v>
-      </c>
-      <c r="D289" s="9">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="E289" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F289" s="11">
-        <f t="shared" si="9"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290" s="7">
-        <v>742</v>
-      </c>
-      <c r="B290" s="18">
-        <v>39</v>
-      </c>
-      <c r="C290" s="18">
-        <v>42</v>
-      </c>
-      <c r="D290" s="9">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="E290" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F290" s="11">
-        <f t="shared" si="9"/>
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="7">
-        <v>743</v>
-      </c>
-      <c r="B291" s="18">
-        <v>50</v>
-      </c>
-      <c r="C291" s="18">
-        <v>58</v>
-      </c>
-      <c r="D291" s="9">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="E291" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="F291" s="11">
-        <f t="shared" si="9"/>
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292" s="7">
-        <v>744</v>
-      </c>
-      <c r="B292" s="18">
-        <v>2</v>
-      </c>
-      <c r="C292" s="18">
-        <v>2</v>
-      </c>
-      <c r="D292" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E292" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F292" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293" s="7">
-        <v>745</v>
-      </c>
-      <c r="B293" s="18">
-        <v>36</v>
-      </c>
-      <c r="C293" s="18">
-        <v>40</v>
-      </c>
-      <c r="D293" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E293" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="F293" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294" s="7">
-        <v>746</v>
-      </c>
-      <c r="B294" s="18">
-        <v>26</v>
-      </c>
-      <c r="C294" s="18">
-        <v>34</v>
-      </c>
-      <c r="D294" s="9">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="E294" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="F294" s="11">
-        <f t="shared" si="9"/>
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295" s="7">
-        <v>747</v>
-      </c>
-      <c r="B295" s="18">
-        <v>2</v>
-      </c>
-      <c r="C295" s="18">
-        <v>2</v>
-      </c>
-      <c r="D295" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E295" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F295" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296" s="7">
-        <v>748</v>
-      </c>
-      <c r="B296" s="18">
-        <v>5</v>
-      </c>
-      <c r="C296" s="18">
-        <v>5</v>
-      </c>
-      <c r="D296" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E296" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F296" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297" s="7">
-        <v>749</v>
-      </c>
-      <c r="B297" s="18">
-        <v>15</v>
-      </c>
-      <c r="C297" s="18">
-        <v>15</v>
-      </c>
-      <c r="D297" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E297" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F297" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298" s="7">
-        <v>750</v>
-      </c>
-      <c r="B298" s="18">
-        <v>45</v>
-      </c>
-      <c r="C298" s="18">
-        <v>49</v>
-      </c>
-      <c r="D298" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E298" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F298" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299" s="7">
-        <v>751</v>
-      </c>
-      <c r="B299" s="18">
-        <v>8</v>
-      </c>
-      <c r="C299" s="18">
-        <v>8</v>
-      </c>
-      <c r="D299" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E299" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F299" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="A300" s="7">
-        <v>801</v>
-      </c>
-      <c r="B300" s="18">
-        <v>90</v>
-      </c>
-      <c r="C300" s="18">
-        <v>96</v>
-      </c>
-      <c r="D300" s="9">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="E300" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F300" s="11">
-        <f t="shared" si="9"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301" s="7">
-        <v>802</v>
-      </c>
-      <c r="B301" s="18">
-        <v>55</v>
-      </c>
-      <c r="C301" s="18">
-        <v>59</v>
-      </c>
-      <c r="D301" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E301" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F301" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="7">
-        <v>803</v>
-      </c>
-      <c r="B302" s="18">
-        <v>90</v>
-      </c>
-      <c r="C302" s="18">
-        <v>91</v>
-      </c>
-      <c r="D302" s="9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E302" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F302" s="11">
-        <f t="shared" si="9"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="7">
-        <v>804</v>
-      </c>
-      <c r="B303" s="18">
-        <v>74</v>
-      </c>
-      <c r="C303" s="18">
-        <v>77</v>
-      </c>
-      <c r="D303" s="9">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="E303" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F303" s="11">
-        <f t="shared" si="9"/>
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" s="7">
-        <v>805</v>
-      </c>
-      <c r="B304" s="18">
-        <v>91</v>
-      </c>
-      <c r="C304" s="18">
-        <v>102</v>
-      </c>
-      <c r="D304" s="9">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="E304" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F304" s="11">
-        <f t="shared" si="9"/>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="A305" s="7">
-        <v>806</v>
-      </c>
-      <c r="B305" s="18">
-        <v>70</v>
-      </c>
-      <c r="C305" s="18">
-        <v>79</v>
-      </c>
-      <c r="D305" s="9">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="E305" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F305" s="11">
-        <f t="shared" si="9"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="A306" s="7">
-        <v>807</v>
-      </c>
-      <c r="B306" s="18">
-        <v>51</v>
-      </c>
-      <c r="C306" s="18">
-        <v>57</v>
-      </c>
-      <c r="D306" s="9">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="E306" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F306" s="11">
-        <f t="shared" si="9"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="A307" s="7">
-        <v>808</v>
-      </c>
-      <c r="B307" s="18">
-        <v>52</v>
-      </c>
-      <c r="C307" s="18">
-        <v>59</v>
-      </c>
-      <c r="D307" s="9">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="E307" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F307" s="11">
-        <f t="shared" si="9"/>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308" s="7">
-        <v>809</v>
-      </c>
-      <c r="B308" s="18">
-        <v>73</v>
-      </c>
-      <c r="C308" s="18">
-        <v>82</v>
-      </c>
-      <c r="D308" s="9">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="E308" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F308" s="11">
-        <f t="shared" si="9"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="A309" s="7">
-        <v>810</v>
-      </c>
-      <c r="B309" s="18">
-        <v>75</v>
-      </c>
-      <c r="C309" s="18">
-        <v>79</v>
-      </c>
-      <c r="D309" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E309" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F309" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="A310" s="7">
-        <v>811</v>
-      </c>
-      <c r="B310" s="18">
-        <v>33</v>
-      </c>
-      <c r="C310" s="18">
-        <v>35</v>
-      </c>
-      <c r="D310" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E310" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F310" s="11">
-        <f t="shared" si="9"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="A311" s="7">
-        <v>812</v>
-      </c>
-      <c r="B311" s="18">
-        <v>68</v>
-      </c>
-      <c r="C311" s="18">
-        <v>74</v>
-      </c>
-      <c r="D311" s="9">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="E311" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F311" s="11">
-        <f t="shared" si="9"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312" s="7">
-        <v>813</v>
-      </c>
-      <c r="B312" s="18">
-        <v>49</v>
-      </c>
-      <c r="C312" s="18">
-        <v>54</v>
-      </c>
-      <c r="D312" s="9">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="E312" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F312" s="11">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="A313" s="7">
-        <v>814</v>
-      </c>
-      <c r="B313" s="18">
-        <v>36</v>
-      </c>
-      <c r="C313" s="18">
-        <v>40</v>
-      </c>
-      <c r="D313" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E313" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F313" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="A314" s="7">
-        <v>815</v>
-      </c>
-      <c r="B314" s="18">
-        <v>32</v>
-      </c>
-      <c r="C314" s="18">
-        <v>34</v>
-      </c>
-      <c r="D314" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E314" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F314" s="11">
-        <f t="shared" si="9"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="A315" s="7">
-        <v>816</v>
-      </c>
-      <c r="B315" s="18">
-        <v>78</v>
-      </c>
-      <c r="C315" s="18">
-        <v>87</v>
-      </c>
-      <c r="D315" s="9">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="E315" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F315" s="11">
-        <f t="shared" si="9"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="A316" s="7">
-        <v>817</v>
-      </c>
-      <c r="B316" s="18">
-        <v>67</v>
-      </c>
-      <c r="C316" s="18">
-        <v>67</v>
-      </c>
-      <c r="D316" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E316" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F316" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="A317" s="7">
-        <v>818</v>
-      </c>
-      <c r="B317" s="18">
-        <v>51</v>
-      </c>
-      <c r="C317" s="18">
-        <v>55</v>
-      </c>
-      <c r="D317" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E317" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F317" s="11">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318" s="7">
-        <v>819</v>
-      </c>
-      <c r="B318" s="18">
-        <v>37</v>
-      </c>
-      <c r="C318" s="18">
-        <v>41</v>
-      </c>
-      <c r="D318" s="9">
-        <f t="shared" ref="D318:D381" si="10">C318-B318</f>
-        <v>4</v>
-      </c>
-      <c r="E318" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F318" s="11">
-        <f t="shared" ref="F318:F381" si="11">D318*E318</f>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="A319" s="7">
-        <v>820</v>
-      </c>
-      <c r="B319" s="18">
-        <v>65</v>
-      </c>
-      <c r="C319" s="18">
-        <v>71</v>
-      </c>
-      <c r="D319" s="9">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="E319" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F319" s="11">
-        <f t="shared" si="11"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
-      <c r="A320" s="7">
-        <v>821</v>
-      </c>
-      <c r="B320" s="18">
-        <v>62</v>
-      </c>
-      <c r="C320" s="18">
-        <v>67</v>
-      </c>
-      <c r="D320" s="9">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E320" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F320" s="11">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
-      <c r="A321" s="7">
-        <v>822</v>
-      </c>
-      <c r="B321" s="18">
-        <v>59</v>
-      </c>
-      <c r="C321" s="18">
-        <v>65</v>
-      </c>
-      <c r="D321" s="9">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="E321" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F321" s="11">
-        <f t="shared" si="11"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
-      <c r="A322" s="7">
-        <v>823</v>
-      </c>
-      <c r="B322" s="18">
-        <v>53</v>
-      </c>
-      <c r="C322" s="18">
-        <v>57</v>
-      </c>
-      <c r="D322" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="E322" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F322" s="11">
-        <f t="shared" si="11"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="A323" s="7">
-        <v>824</v>
-      </c>
-      <c r="B323" s="18">
-        <v>58</v>
-      </c>
-      <c r="C323" s="18">
-        <v>58</v>
-      </c>
-      <c r="D323" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E323" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F323" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
-      <c r="A324" s="7">
-        <v>825</v>
-      </c>
-      <c r="B324" s="18">
-        <v>78</v>
-      </c>
-      <c r="C324" s="18">
-        <v>85</v>
-      </c>
-      <c r="D324" s="9">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="E324" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F324" s="11">
-        <f t="shared" si="11"/>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
-      <c r="A325" s="7">
-        <v>826</v>
-      </c>
-      <c r="B325" s="18">
-        <v>66</v>
-      </c>
-      <c r="C325" s="18">
-        <v>67</v>
-      </c>
-      <c r="D325" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E325" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F325" s="11">
-        <f t="shared" si="11"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
-      <c r="A326" s="7">
-        <v>827</v>
-      </c>
-      <c r="B326" s="18">
-        <v>53</v>
-      </c>
-      <c r="C326" s="18">
-        <v>54</v>
-      </c>
-      <c r="D326" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E326" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F326" s="11">
-        <f t="shared" si="11"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
-      <c r="A327" s="7">
-        <v>828</v>
-      </c>
-      <c r="B327" s="18">
-        <v>73</v>
-      </c>
-      <c r="C327" s="18">
-        <v>86</v>
-      </c>
-      <c r="D327" s="9">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="E327" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F327" s="11">
-        <f t="shared" si="11"/>
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
-      <c r="A328" s="7">
-        <v>829</v>
-      </c>
-      <c r="B328" s="18">
-        <v>63</v>
-      </c>
-      <c r="C328" s="18">
-        <v>69</v>
-      </c>
-      <c r="D328" s="9">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="E328" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F328" s="11">
-        <f t="shared" si="11"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
-      <c r="A329" s="7">
-        <v>830</v>
-      </c>
-      <c r="B329" s="18">
-        <v>93</v>
-      </c>
-      <c r="C329" s="18">
-        <v>104</v>
-      </c>
-      <c r="D329" s="9">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="E329" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F329" s="11">
-        <f t="shared" si="11"/>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330" s="7">
-        <v>831</v>
-      </c>
-      <c r="B330" s="18">
-        <v>61</v>
-      </c>
-      <c r="C330" s="18">
-        <v>63</v>
-      </c>
-      <c r="D330" s="9">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E330" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F330" s="11">
-        <f t="shared" si="11"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
-      <c r="A331" s="7">
-        <v>832</v>
-      </c>
-      <c r="B331" s="18">
-        <v>52</v>
-      </c>
-      <c r="C331" s="18">
-        <v>58</v>
-      </c>
-      <c r="D331" s="9">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="E331" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F331" s="11">
-        <f t="shared" si="11"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
-      <c r="A332" s="7">
-        <v>833</v>
-      </c>
-      <c r="B332" s="18">
-        <v>49</v>
-      </c>
-      <c r="C332" s="18">
-        <v>51</v>
-      </c>
-      <c r="D332" s="9">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E332" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F332" s="11">
-        <f t="shared" si="11"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="A333" s="7">
-        <v>834</v>
-      </c>
-      <c r="B333" s="18">
-        <v>38</v>
-      </c>
-      <c r="C333" s="18">
-        <v>42</v>
-      </c>
-      <c r="D333" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="E333" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F333" s="11">
-        <f t="shared" si="11"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
-      <c r="A334" s="7">
-        <v>835</v>
-      </c>
-      <c r="B334" s="18">
-        <v>65</v>
-      </c>
-      <c r="C334" s="18">
-        <v>73</v>
-      </c>
-      <c r="D334" s="9">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="E334" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F334" s="11">
-        <f t="shared" si="11"/>
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
-      <c r="A335" s="7">
-        <v>836</v>
-      </c>
-      <c r="B335" s="18">
-        <v>55</v>
-      </c>
-      <c r="C335" s="18">
-        <v>58</v>
-      </c>
-      <c r="D335" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E335" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F335" s="11">
-        <f t="shared" si="11"/>
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
-      <c r="A336" s="7">
-        <v>837</v>
-      </c>
-      <c r="B336" s="18">
-        <v>80</v>
-      </c>
-      <c r="C336" s="18">
-        <v>88</v>
-      </c>
-      <c r="D336" s="9">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="E336" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F336" s="11">
-        <f t="shared" si="11"/>
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="A337" s="7">
-        <v>838</v>
-      </c>
-      <c r="B337" s="18">
-        <v>51</v>
-      </c>
-      <c r="C337" s="18">
-        <v>58</v>
-      </c>
-      <c r="D337" s="9">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="E337" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F337" s="11">
-        <f t="shared" si="11"/>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="A338" s="7">
-        <v>839</v>
-      </c>
-      <c r="B338" s="18">
-        <v>69</v>
-      </c>
-      <c r="C338" s="18">
-        <v>71</v>
-      </c>
-      <c r="D338" s="9">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E338" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F338" s="11">
-        <f t="shared" si="11"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339" s="7">
-        <v>840</v>
-      </c>
-      <c r="B339" s="18">
-        <v>40</v>
-      </c>
-      <c r="C339" s="18">
-        <v>42</v>
-      </c>
-      <c r="D339" s="9">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E339" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F339" s="11">
-        <f t="shared" si="11"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="7">
-        <v>841</v>
-      </c>
-      <c r="B340" s="18">
-        <v>44</v>
-      </c>
-      <c r="C340" s="18">
-        <v>49</v>
-      </c>
-      <c r="D340" s="9">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E340" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F340" s="11">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="7">
-        <v>842</v>
-      </c>
-      <c r="B341" s="18">
-        <v>73</v>
-      </c>
-      <c r="C341" s="18">
-        <v>82</v>
-      </c>
-      <c r="D341" s="9">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="E341" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F341" s="11">
-        <f t="shared" si="11"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="7">
-        <v>843</v>
-      </c>
-      <c r="B342" s="18">
-        <v>43</v>
-      </c>
-      <c r="C342" s="18">
-        <v>47</v>
-      </c>
-      <c r="D342" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="E342" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F342" s="11">
-        <f t="shared" si="11"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="7">
-        <v>844</v>
-      </c>
-      <c r="B343" s="18">
-        <v>59</v>
-      </c>
-      <c r="C343" s="18">
-        <v>65</v>
-      </c>
-      <c r="D343" s="9">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="E343" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F343" s="11">
-        <f t="shared" si="11"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="7">
-        <v>845</v>
-      </c>
-      <c r="B344" s="18">
-        <v>43</v>
-      </c>
-      <c r="C344" s="18">
-        <v>46</v>
-      </c>
-      <c r="D344" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E344" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F344" s="11">
-        <f t="shared" si="11"/>
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="A345" s="7">
-        <v>846</v>
-      </c>
-      <c r="B345" s="18">
-        <v>58</v>
-      </c>
-      <c r="C345" s="18">
-        <v>63</v>
-      </c>
-      <c r="D345" s="9">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E345" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F345" s="11">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="A346" s="7">
-        <v>847</v>
-      </c>
-      <c r="B346" s="18">
-        <v>78</v>
-      </c>
-      <c r="C346" s="18">
-        <v>82</v>
-      </c>
-      <c r="D346" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="E346" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="F346" s="11">
-        <f t="shared" si="11"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="A347" s="7">
-        <v>848</v>
-      </c>
-      <c r="B347" s="18">
-        <v>52</v>
-      </c>
-      <c r="C347" s="18">
-        <v>58</v>
-      </c>
-      <c r="D347" s="9">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="E347" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F347" s="11">
-        <f t="shared" si="11"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="7">
-        <v>849</v>
-      </c>
-      <c r="B348" s="18">
-        <v>52</v>
-      </c>
-      <c r="C348" s="18">
-        <v>58</v>
-      </c>
-      <c r="D348" s="9">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="E348" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F348" s="11">
-        <f t="shared" si="11"/>
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="7">
-        <v>850</v>
-      </c>
-      <c r="B349" s="18">
-        <v>40</v>
-      </c>
-      <c r="C349" s="18">
-        <v>43</v>
-      </c>
-      <c r="D349" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E349" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F349" s="11">
-        <f t="shared" si="11"/>
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="7">
-        <v>851</v>
-      </c>
-      <c r="B350" s="18">
-        <v>69</v>
-      </c>
-      <c r="C350" s="18">
-        <v>72</v>
-      </c>
-      <c r="D350" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E350" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F350" s="11">
-        <f t="shared" si="11"/>
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="A351" s="7">
-        <v>901</v>
-      </c>
-      <c r="B351" s="18">
-        <v>0</v>
-      </c>
-      <c r="C351" s="18">
-        <v>0</v>
-      </c>
-      <c r="D351" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E351" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F351" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="7">
-        <v>902</v>
-      </c>
-      <c r="B352" s="18">
-        <v>19</v>
-      </c>
-      <c r="C352" s="18">
-        <v>19</v>
-      </c>
-      <c r="D352" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E352" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="F352" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="A353" s="7">
-        <v>903</v>
-      </c>
-      <c r="B353" s="18">
-        <v>0</v>
-      </c>
-      <c r="C353" s="18">
-        <v>0</v>
-      </c>
-      <c r="D353" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E353" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F353" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
-      <c r="A354" s="7">
-        <v>904</v>
-      </c>
-      <c r="B354" s="18">
-        <v>0</v>
-      </c>
-      <c r="C354" s="18">
-        <v>0</v>
-      </c>
-      <c r="D354" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E354" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F354" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="A355" s="7">
-        <v>905</v>
-      </c>
-      <c r="B355" s="18">
-        <v>0</v>
-      </c>
-      <c r="C355" s="18">
-        <v>0</v>
-      </c>
-      <c r="D355" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E355" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="F355" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="7">
-        <v>906</v>
-      </c>
-      <c r="B356" s="18">
-        <v>19</v>
-      </c>
-      <c r="C356" s="18">
-        <v>19</v>
-      </c>
-      <c r="D356" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E356" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F356" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="A357" s="7">
-        <v>907</v>
-      </c>
-      <c r="B357" s="18">
-        <v>0</v>
-      </c>
-      <c r="C357" s="18">
-        <v>0</v>
-      </c>
-      <c r="D357" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E357" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F357" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="7">
-        <v>908</v>
-      </c>
-      <c r="B358" s="18">
-        <v>28</v>
-      </c>
-      <c r="C358" s="18">
-        <v>33</v>
-      </c>
-      <c r="D358" s="9">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E358" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F358" s="11">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="A359" s="7">
-        <v>909</v>
-      </c>
-      <c r="B359" s="18">
-        <v>18</v>
-      </c>
-      <c r="C359" s="18">
-        <v>19</v>
-      </c>
-      <c r="D359" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E359" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F359" s="11">
-        <f t="shared" si="11"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="7">
-        <v>910</v>
-      </c>
-      <c r="B360" s="18">
-        <v>17</v>
-      </c>
-      <c r="C360" s="18">
-        <v>20</v>
-      </c>
-      <c r="D360" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E360" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F360" s="11">
-        <f t="shared" si="11"/>
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="7">
-        <v>911</v>
-      </c>
-      <c r="B361" s="18">
-        <v>9</v>
-      </c>
-      <c r="C361" s="18">
-        <v>9</v>
-      </c>
-      <c r="D361" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E361" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F361" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="7">
-        <v>912</v>
-      </c>
-      <c r="B362" s="18">
-        <v>12</v>
-      </c>
-      <c r="C362" s="18">
-        <v>12</v>
-      </c>
-      <c r="D362" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E362" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F362" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="7">
-        <v>913</v>
-      </c>
-      <c r="B363" s="18">
-        <v>42</v>
-      </c>
-      <c r="C363" s="18">
-        <v>42</v>
-      </c>
-      <c r="D363" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E363" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F363" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="7">
-        <v>914</v>
-      </c>
-      <c r="B364" s="18">
-        <v>0</v>
-      </c>
-      <c r="C364" s="18">
-        <v>0</v>
-      </c>
-      <c r="D364" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E364" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="F364" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="A365" s="7">
-        <v>915</v>
-      </c>
-      <c r="B365" s="18">
-        <v>16</v>
-      </c>
-      <c r="C365" s="18">
-        <v>16</v>
-      </c>
-      <c r="D365" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E365" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F365" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="A366" s="7">
-        <v>916</v>
-      </c>
-      <c r="B366" s="18">
-        <v>33</v>
-      </c>
-      <c r="C366" s="18">
-        <v>37</v>
-      </c>
-      <c r="D366" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="E366" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F366" s="11">
-        <f t="shared" si="11"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="7">
-        <v>917</v>
-      </c>
-      <c r="B367" s="18">
-        <v>5</v>
-      </c>
-      <c r="C367" s="18">
-        <v>8</v>
-      </c>
-      <c r="D367" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E367" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="F367" s="11">
-        <f t="shared" si="11"/>
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="A368" s="7">
-        <v>918</v>
-      </c>
-      <c r="B368" s="18">
-        <v>30</v>
-      </c>
-      <c r="C368" s="18">
-        <v>35</v>
-      </c>
-      <c r="D368" s="9">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E368" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F368" s="11">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
-      <c r="A369" s="7">
-        <v>919</v>
-      </c>
-      <c r="B369" s="18">
-        <v>0</v>
-      </c>
-      <c r="C369" s="18">
-        <v>0</v>
-      </c>
-      <c r="D369" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E369" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F369" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="7">
-        <v>920</v>
-      </c>
-      <c r="B370" s="18">
-        <v>25</v>
-      </c>
-      <c r="C370" s="18">
-        <v>29</v>
-      </c>
-      <c r="D370" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="E370" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F370" s="11">
-        <f t="shared" si="11"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="A371" s="7">
-        <v>921</v>
-      </c>
-      <c r="B371" s="18">
-        <v>6</v>
-      </c>
-      <c r="C371" s="18">
-        <v>8</v>
-      </c>
-      <c r="D371" s="9">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E371" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F371" s="11">
-        <f t="shared" si="11"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
-      <c r="A372" s="7">
-        <v>922</v>
-      </c>
-      <c r="B372" s="18">
-        <v>0</v>
-      </c>
-      <c r="C372" s="18">
-        <v>0</v>
-      </c>
-      <c r="D372" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E372" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F372" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
-      <c r="A373" s="7">
-        <v>923</v>
-      </c>
-      <c r="B373" s="18">
-        <v>0</v>
-      </c>
-      <c r="C373" s="18">
-        <v>0</v>
-      </c>
-      <c r="D373" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E373" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F373" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="7">
-        <v>924</v>
-      </c>
-      <c r="B374" s="18">
-        <v>0</v>
-      </c>
-      <c r="C374" s="18">
-        <v>0</v>
-      </c>
-      <c r="D374" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E374" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F374" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="A375" s="7">
-        <v>925</v>
-      </c>
-      <c r="B375" s="18">
-        <v>0</v>
-      </c>
-      <c r="C375" s="18">
-        <v>0</v>
-      </c>
-      <c r="D375" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E375" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F375" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="A376" s="7">
-        <v>926</v>
-      </c>
-      <c r="B376" s="18">
-        <v>0</v>
-      </c>
-      <c r="C376" s="18">
-        <v>0</v>
-      </c>
-      <c r="D376" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E376" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="F376" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="A377" s="7">
-        <v>927</v>
-      </c>
-      <c r="B377" s="18">
-        <v>0</v>
-      </c>
-      <c r="C377" s="18">
-        <v>0</v>
-      </c>
-      <c r="D377" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E377" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F377" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
-      <c r="A378" s="7">
-        <v>928</v>
-      </c>
-      <c r="B378" s="18">
-        <v>0</v>
-      </c>
-      <c r="C378" s="18">
-        <v>0</v>
-      </c>
-      <c r="D378" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E378" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F378" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="A379" s="7">
-        <v>929</v>
-      </c>
-      <c r="B379" s="18">
-        <v>0</v>
-      </c>
-      <c r="C379" s="18">
-        <v>0</v>
-      </c>
-      <c r="D379" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E379" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="F379" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
-      <c r="A380" s="7">
-        <v>930</v>
-      </c>
-      <c r="B380" s="18">
-        <v>0</v>
-      </c>
-      <c r="C380" s="18">
-        <v>0</v>
-      </c>
-      <c r="D380" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E380" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F380" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
-      <c r="A381" s="7">
-        <v>931</v>
-      </c>
-      <c r="B381" s="18">
-        <v>0</v>
-      </c>
-      <c r="C381" s="18">
-        <v>0</v>
-      </c>
-      <c r="D381" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E381" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F381" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="7">
-        <v>932</v>
-      </c>
-      <c r="B382" s="18">
-        <v>0</v>
-      </c>
-      <c r="C382" s="18">
-        <v>0</v>
-      </c>
-      <c r="D382" s="9">
-        <f t="shared" ref="D382:D401" si="12">C382-B382</f>
-        <v>0</v>
-      </c>
-      <c r="E382" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F382" s="11">
-        <f t="shared" ref="F382:F401" si="13">D382*E382</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="A383" s="7">
-        <v>933</v>
-      </c>
-      <c r="B383" s="18">
-        <v>0</v>
-      </c>
-      <c r="C383" s="18">
-        <v>0</v>
-      </c>
-      <c r="D383" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E383" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F383" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="7">
-        <v>934</v>
-      </c>
-      <c r="B384" s="18">
-        <v>0</v>
-      </c>
-      <c r="C384" s="18">
-        <v>0</v>
-      </c>
-      <c r="D384" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E384" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="F384" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
-      <c r="A385" s="7">
-        <v>935</v>
-      </c>
-      <c r="B385" s="18">
-        <v>13</v>
-      </c>
-      <c r="C385" s="18">
-        <v>13</v>
-      </c>
-      <c r="D385" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E385" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F385" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
-      <c r="A386" s="7">
-        <v>936</v>
-      </c>
-      <c r="B386" s="18">
-        <v>0</v>
-      </c>
-      <c r="C386" s="18">
-        <v>0</v>
-      </c>
-      <c r="D386" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E386" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F386" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="A387" s="7">
-        <v>937</v>
-      </c>
-      <c r="B387" s="18">
-        <v>0</v>
-      </c>
-      <c r="C387" s="18">
-        <v>0</v>
-      </c>
-      <c r="D387" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E387" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F387" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="7">
-        <v>938</v>
-      </c>
-      <c r="B388" s="18">
-        <v>0</v>
-      </c>
-      <c r="C388" s="18">
-        <v>0</v>
-      </c>
-      <c r="D388" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E388" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="F388" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="7">
-        <v>939</v>
-      </c>
-      <c r="B389" s="18">
-        <v>0</v>
-      </c>
-      <c r="C389" s="18">
-        <v>0</v>
-      </c>
-      <c r="D389" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E389" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F389" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="A390" s="7">
-        <v>940</v>
-      </c>
-      <c r="B390" s="18">
-        <v>0</v>
-      </c>
-      <c r="C390" s="18">
-        <v>0</v>
-      </c>
-      <c r="D390" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E390" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="F390" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
-      <c r="A391" s="7">
-        <v>941</v>
-      </c>
-      <c r="B391" s="18">
-        <v>2</v>
-      </c>
-      <c r="C391" s="18">
-        <v>2</v>
-      </c>
-      <c r="D391" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E391" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="F391" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6">
-      <c r="A392" s="19">
-        <v>942</v>
-      </c>
-      <c r="B392" s="18">
-        <v>2</v>
-      </c>
-      <c r="C392" s="18">
-        <v>2</v>
-      </c>
-      <c r="D392" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E392" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F392" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="A393" s="7">
-        <v>943</v>
-      </c>
-      <c r="B393" s="18">
-        <v>0</v>
-      </c>
-      <c r="C393" s="18">
-        <v>0</v>
-      </c>
-      <c r="D393" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E393" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F393" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
-      <c r="A394" s="7">
-        <v>944</v>
-      </c>
-      <c r="B394" s="18">
-        <v>0</v>
-      </c>
-      <c r="C394" s="18">
-        <v>0</v>
-      </c>
-      <c r="D394" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E394" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="F394" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6">
-      <c r="A395" s="7">
-        <v>945</v>
-      </c>
-      <c r="B395" s="18">
-        <v>0</v>
-      </c>
-      <c r="C395" s="18">
-        <v>0</v>
-      </c>
-      <c r="D395" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E395" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F395" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
-      <c r="A396" s="7">
-        <v>946</v>
-      </c>
-      <c r="B396" s="18">
-        <v>0</v>
-      </c>
-      <c r="C396" s="18">
-        <v>0</v>
-      </c>
-      <c r="D396" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E396" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F396" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6">
-      <c r="A397" s="7">
-        <v>947</v>
-      </c>
-      <c r="B397" s="18">
-        <v>0</v>
-      </c>
-      <c r="C397" s="18">
-        <v>0</v>
-      </c>
-      <c r="D397" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E397" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="F397" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6">
-      <c r="A398" s="7">
-        <v>948</v>
-      </c>
-      <c r="B398" s="18">
-        <v>0</v>
-      </c>
-      <c r="C398" s="18">
-        <v>0</v>
-      </c>
-      <c r="D398" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E398" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F398" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
-      <c r="A399" s="7">
-        <v>949</v>
-      </c>
-      <c r="B399" s="18">
-        <v>0</v>
-      </c>
-      <c r="C399" s="18">
-        <v>0</v>
-      </c>
-      <c r="D399" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E399" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F399" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6">
-      <c r="A400" s="7">
-        <v>950</v>
-      </c>
-      <c r="B400" s="18">
-        <v>0</v>
-      </c>
-      <c r="C400" s="18">
-        <v>0</v>
-      </c>
-      <c r="D400" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E400" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F400" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6">
-      <c r="A401" s="7">
-        <v>951</v>
-      </c>
-      <c r="B401" s="18">
-        <v>0</v>
-      </c>
-      <c r="C401" s="18">
-        <v>0</v>
-      </c>
-      <c r="D401" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E401" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="F401" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
